--- a/parameter/manualcount/manual_count.xlsx
+++ b/parameter/manualcount/manual_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainer/git/0.RPackages/LEEF/LEEF.parameter/parameter/manualcount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65879595-4F09-2947-AABA-511F534FB04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80A9307-253B-E746-AD19-3842BD382D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>bottle</t>
   </si>
@@ -130,12 +130,6 @@
   </si>
   <si>
     <t>b_30</t>
-  </si>
-  <si>
-    <t>b_31</t>
-  </si>
-  <si>
-    <t>b_32</t>
   </si>
 </sst>
 </file>
@@ -476,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,26 +792,6 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
